--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Cthrc1</t>
+  </si>
+  <si>
+    <t>Fzd5</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cthrc1</t>
-  </si>
-  <si>
-    <t>Fzd5</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3732849999999999</v>
+        <v>1.169991666666667</v>
       </c>
       <c r="H2">
-        <v>1.119855</v>
+        <v>3.509975</v>
       </c>
       <c r="I2">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="J2">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>8.259748666666667</v>
+        <v>3.710289666666667</v>
       </c>
       <c r="N2">
-        <v>24.779246</v>
+        <v>11.130869</v>
       </c>
       <c r="O2">
-        <v>0.4118513756345933</v>
+        <v>0.2419880648107798</v>
       </c>
       <c r="P2">
-        <v>0.4118513756345933</v>
+        <v>0.2419880648107798</v>
       </c>
       <c r="Q2">
-        <v>3.083240281036666</v>
+        <v>4.341007990919445</v>
       </c>
       <c r="R2">
-        <v>27.74916252933</v>
+        <v>39.06907191827501</v>
       </c>
       <c r="S2">
-        <v>0.001339404279875602</v>
+        <v>0.002445465414914804</v>
       </c>
       <c r="T2">
-        <v>0.001339404279875602</v>
+        <v>0.002445465414914804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3732849999999999</v>
+        <v>1.169991666666667</v>
       </c>
       <c r="H3">
-        <v>1.119855</v>
+        <v>3.509975</v>
       </c>
       <c r="I3">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="J3">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>17.12906</v>
       </c>
       <c r="O3">
-        <v>0.2846990148258541</v>
+        <v>0.3723903391035988</v>
       </c>
       <c r="P3">
-        <v>0.2846990148258541</v>
+        <v>0.3723903391035988</v>
       </c>
       <c r="Q3">
-        <v>2.131340387366666</v>
+        <v>6.680285819277778</v>
       </c>
       <c r="R3">
-        <v>19.1820634863</v>
+        <v>60.1225723735</v>
       </c>
       <c r="S3">
-        <v>0.0009258851651194706</v>
+        <v>0.003763275250117539</v>
       </c>
       <c r="T3">
-        <v>0.0009258851651194707</v>
+        <v>0.003763275250117539</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3732849999999999</v>
+        <v>1.169991666666667</v>
       </c>
       <c r="H4">
-        <v>1.119855</v>
+        <v>3.509975</v>
       </c>
       <c r="I4">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="J4">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.909174</v>
+        <v>2.323136666666667</v>
       </c>
       <c r="N4">
-        <v>5.727522</v>
+        <v>6.96941</v>
       </c>
       <c r="O4">
-        <v>0.09519610946504979</v>
+        <v>0.1515168347388597</v>
       </c>
       <c r="P4">
-        <v>0.09519610946504979</v>
+        <v>0.1515168347388597</v>
       </c>
       <c r="Q4">
-        <v>0.71266601659</v>
+        <v>2.718050540527778</v>
       </c>
       <c r="R4">
-        <v>6.41399414931</v>
+        <v>24.46245486475</v>
       </c>
       <c r="S4">
-        <v>0.000309592450064125</v>
+        <v>0.001531187827056574</v>
       </c>
       <c r="T4">
-        <v>0.000309592450064125</v>
+        <v>0.001531187827056574</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3732849999999999</v>
+        <v>1.169991666666667</v>
       </c>
       <c r="H5">
-        <v>1.119855</v>
+        <v>3.509975</v>
       </c>
       <c r="I5">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="J5">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.176559</v>
+        <v>3.589418666666667</v>
       </c>
       <c r="N5">
-        <v>12.529677</v>
+        <v>10.768256</v>
       </c>
       <c r="O5">
-        <v>0.2082535000745028</v>
+        <v>0.2341047613467618</v>
       </c>
       <c r="P5">
-        <v>0.2082535000745028</v>
+        <v>0.2341047613467618</v>
       </c>
       <c r="Q5">
-        <v>1.559046826315</v>
+        <v>4.199589928177779</v>
       </c>
       <c r="R5">
-        <v>14.031421436835</v>
+        <v>37.79630935360001</v>
       </c>
       <c r="S5">
-        <v>0.0006772725449054784</v>
+        <v>0.002365798899164911</v>
       </c>
       <c r="T5">
-        <v>0.0006772725449054784</v>
+        <v>0.00236579889916491</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,40 +791,40 @@
         <v>340.652527</v>
       </c>
       <c r="I6">
-        <v>0.9892839949531296</v>
+        <v>0.9807880605997858</v>
       </c>
       <c r="J6">
-        <v>0.9892839949531296</v>
+        <v>0.9807880605997857</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>8.259748666666667</v>
+        <v>3.710289666666667</v>
       </c>
       <c r="N6">
-        <v>24.779246</v>
+        <v>11.130869</v>
       </c>
       <c r="O6">
-        <v>0.4118513756345933</v>
+        <v>0.2419880648107798</v>
       </c>
       <c r="P6">
-        <v>0.4118513756345933</v>
+        <v>0.2419880648107798</v>
       </c>
       <c r="Q6">
-        <v>937.9014185616268</v>
+        <v>421.3065169506625</v>
       </c>
       <c r="R6">
-        <v>8441.112767054641</v>
+        <v>3791.758652555963</v>
       </c>
       <c r="S6">
-        <v>0.4074379742147324</v>
+        <v>0.23733900477406</v>
       </c>
       <c r="T6">
-        <v>0.4074379742147324</v>
+        <v>0.23733900477406</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>340.652527</v>
       </c>
       <c r="I7">
-        <v>0.9892839949531296</v>
+        <v>0.9807880605997858</v>
       </c>
       <c r="J7">
-        <v>0.9892839949531296</v>
+        <v>0.9807880605997857</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>17.12906</v>
       </c>
       <c r="O7">
-        <v>0.2846990148258541</v>
+        <v>0.3723903391035988</v>
       </c>
       <c r="P7">
-        <v>0.2846990148258541</v>
+        <v>0.3723903391035988</v>
       </c>
       <c r="Q7">
         <v>648.3397304594021</v>
@@ -883,10 +883,10 @@
         <v>5835.057574134619</v>
       </c>
       <c r="S7">
-        <v>0.2816481787461412</v>
+        <v>0.3652359984755152</v>
       </c>
       <c r="T7">
-        <v>0.2816481787461412</v>
+        <v>0.3652359984755152</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>340.652527</v>
       </c>
       <c r="I8">
-        <v>0.9892839949531296</v>
+        <v>0.9807880605997858</v>
       </c>
       <c r="J8">
-        <v>0.9892839949531296</v>
+        <v>0.9807880605997857</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.909174</v>
+        <v>2.323136666666667</v>
       </c>
       <c r="N8">
-        <v>5.727522</v>
+        <v>6.96941</v>
       </c>
       <c r="O8">
-        <v>0.09519610946504979</v>
+        <v>0.1515168347388597</v>
       </c>
       <c r="P8">
-        <v>0.09519610946504979</v>
+        <v>0.1515168347388597</v>
       </c>
       <c r="Q8">
-        <v>216.7883158608993</v>
+        <v>263.7941253554522</v>
       </c>
       <c r="R8">
-        <v>1951.094842748094</v>
+        <v>2374.14712819907</v>
       </c>
       <c r="S8">
-        <v>0.09417598747557988</v>
+        <v>0.1486059024917445</v>
       </c>
       <c r="T8">
-        <v>0.09417598747557988</v>
+        <v>0.1486059024917445</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>340.652527</v>
       </c>
       <c r="I9">
-        <v>0.9892839949531296</v>
+        <v>0.9807880605997858</v>
       </c>
       <c r="J9">
-        <v>0.9892839949531296</v>
+        <v>0.9807880605997857</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.176559</v>
+        <v>3.589418666666667</v>
       </c>
       <c r="N9">
-        <v>12.529677</v>
+        <v>10.768256</v>
       </c>
       <c r="O9">
-        <v>0.2082535000745028</v>
+        <v>0.2341047613467618</v>
       </c>
       <c r="P9">
-        <v>0.2082535000745028</v>
+        <v>0.2341047613467618</v>
       </c>
       <c r="Q9">
-        <v>474.2517925048643</v>
+        <v>407.5815130869902</v>
       </c>
       <c r="R9">
-        <v>4268.266132543778</v>
+        <v>3668.233617782912</v>
       </c>
       <c r="S9">
-        <v>0.206021854516676</v>
+        <v>0.2296071548584662</v>
       </c>
       <c r="T9">
-        <v>0.206021854516676</v>
+        <v>0.2296071548584661</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,46 +1033,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.8011793333333334</v>
+        <v>1.054272666666667</v>
       </c>
       <c r="H10">
-        <v>2.403538</v>
+        <v>3.162818</v>
       </c>
       <c r="I10">
-        <v>0.00698007936592132</v>
+        <v>0.009106212008960361</v>
       </c>
       <c r="J10">
-        <v>0.00698007936592132</v>
+        <v>0.009106212008960359</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>8.259748666666667</v>
+        <v>3.710289666666667</v>
       </c>
       <c r="N10">
-        <v>24.779246</v>
+        <v>11.130869</v>
       </c>
       <c r="O10">
-        <v>0.4118513756345933</v>
+        <v>0.2419880648107798</v>
       </c>
       <c r="P10">
-        <v>0.4118513756345933</v>
+        <v>0.2419880648107798</v>
       </c>
       <c r="Q10">
-        <v>6.617539930260889</v>
+        <v>3.911656980982444</v>
       </c>
       <c r="R10">
-        <v>59.55785937234801</v>
+        <v>35.204912828842</v>
       </c>
       <c r="S10">
-        <v>0.002874755288893336</v>
+        <v>0.002203594621805001</v>
       </c>
       <c r="T10">
-        <v>0.002874755288893336</v>
+        <v>0.002203594621805001</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.8011793333333334</v>
+        <v>1.054272666666667</v>
       </c>
       <c r="H11">
-        <v>2.403538</v>
+        <v>3.162818</v>
       </c>
       <c r="I11">
-        <v>0.00698007936592132</v>
+        <v>0.009106212008960361</v>
       </c>
       <c r="J11">
-        <v>0.00698007936592132</v>
+        <v>0.009106212008960359</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>17.12906</v>
       </c>
       <c r="O11">
-        <v>0.2846990148258541</v>
+        <v>0.3723903391035988</v>
       </c>
       <c r="P11">
-        <v>0.2846990148258541</v>
+        <v>0.3723903391035988</v>
       </c>
       <c r="Q11">
-        <v>4.574482957142222</v>
+        <v>6.019566587897777</v>
       </c>
       <c r="R11">
-        <v>41.17034661428</v>
+        <v>54.17609929107999</v>
       </c>
       <c r="S11">
-        <v>0.001987221718884072</v>
+        <v>0.003391065377966012</v>
       </c>
       <c r="T11">
-        <v>0.001987221718884072</v>
+        <v>0.003391065377966012</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.8011793333333334</v>
+        <v>1.054272666666667</v>
       </c>
       <c r="H12">
-        <v>2.403538</v>
+        <v>3.162818</v>
       </c>
       <c r="I12">
-        <v>0.00698007936592132</v>
+        <v>0.009106212008960361</v>
       </c>
       <c r="J12">
-        <v>0.00698007936592132</v>
+        <v>0.009106212008960359</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.909174</v>
+        <v>2.323136666666667</v>
       </c>
       <c r="N12">
-        <v>5.727522</v>
+        <v>6.96941</v>
       </c>
       <c r="O12">
-        <v>0.09519610946504979</v>
+        <v>0.1515168347388597</v>
       </c>
       <c r="P12">
-        <v>0.09519610946504979</v>
+        <v>0.1515168347388597</v>
       </c>
       <c r="Q12">
-        <v>1.529590752537334</v>
+        <v>2.449219488597778</v>
       </c>
       <c r="R12">
-        <v>13.766316772836</v>
+        <v>22.04297539738</v>
       </c>
       <c r="S12">
-        <v>0.0006644763993929814</v>
+        <v>0.001379744420058667</v>
       </c>
       <c r="T12">
-        <v>0.0006644763993929814</v>
+        <v>0.001379744420058666</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.8011793333333334</v>
+        <v>1.054272666666667</v>
       </c>
       <c r="H13">
-        <v>2.403538</v>
+        <v>3.162818</v>
       </c>
       <c r="I13">
-        <v>0.00698007936592132</v>
+        <v>0.009106212008960361</v>
       </c>
       <c r="J13">
-        <v>0.00698007936592132</v>
+        <v>0.009106212008960359</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.176559</v>
+        <v>3.589418666666667</v>
       </c>
       <c r="N13">
-        <v>12.529677</v>
+        <v>10.768256</v>
       </c>
       <c r="O13">
-        <v>0.2082535000745028</v>
+        <v>0.2341047613467618</v>
       </c>
       <c r="P13">
-        <v>0.2082535000745028</v>
+        <v>0.2341047613467618</v>
       </c>
       <c r="Q13">
-        <v>3.346172755247334</v>
+        <v>3.784225989489778</v>
       </c>
       <c r="R13">
-        <v>30.115554797226</v>
+        <v>34.058033905408</v>
       </c>
       <c r="S13">
-        <v>0.001453625958750931</v>
+        <v>0.002131807589130681</v>
       </c>
       <c r="T13">
-        <v>0.001453625958750931</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.05552766666666666</v>
-      </c>
-      <c r="H14">
-        <v>0.166583</v>
-      </c>
-      <c r="I14">
-        <v>0.0004837712409844451</v>
-      </c>
-      <c r="J14">
-        <v>0.000483771240984445</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>8.259748666666667</v>
-      </c>
-      <c r="N14">
-        <v>24.779246</v>
-      </c>
-      <c r="O14">
-        <v>0.4118513756345933</v>
-      </c>
-      <c r="P14">
-        <v>0.4118513756345933</v>
-      </c>
-      <c r="Q14">
-        <v>0.4586445707131111</v>
-      </c>
-      <c r="R14">
-        <v>4.127801136417999</v>
-      </c>
-      <c r="S14">
-        <v>0.0001992418510918981</v>
-      </c>
-      <c r="T14">
-        <v>0.000199241851091898</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.05552766666666666</v>
-      </c>
-      <c r="H15">
-        <v>0.166583</v>
-      </c>
-      <c r="I15">
-        <v>0.0004837712409844451</v>
-      </c>
-      <c r="J15">
-        <v>0.000483771240984445</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>5.709686666666666</v>
-      </c>
-      <c r="N15">
-        <v>17.12906</v>
-      </c>
-      <c r="O15">
-        <v>0.2846990148258541</v>
-      </c>
-      <c r="P15">
-        <v>0.2846990148258541</v>
-      </c>
-      <c r="Q15">
-        <v>0.3170455779977777</v>
-      </c>
-      <c r="R15">
-        <v>2.85341020198</v>
-      </c>
-      <c r="S15">
-        <v>0.0001377291957093524</v>
-      </c>
-      <c r="T15">
-        <v>0.0001377291957093524</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.05552766666666666</v>
-      </c>
-      <c r="H16">
-        <v>0.166583</v>
-      </c>
-      <c r="I16">
-        <v>0.0004837712409844451</v>
-      </c>
-      <c r="J16">
-        <v>0.000483771240984445</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.909174</v>
-      </c>
-      <c r="N16">
-        <v>5.727522</v>
-      </c>
-      <c r="O16">
-        <v>0.09519610946504979</v>
-      </c>
-      <c r="P16">
-        <v>0.09519610946504979</v>
-      </c>
-      <c r="Q16">
-        <v>0.1060119774806667</v>
-      </c>
-      <c r="R16">
-        <v>0.9541077973259999</v>
-      </c>
-      <c r="S16">
-        <v>4.605314001279822E-05</v>
-      </c>
-      <c r="T16">
-        <v>4.605314001279821E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.05552766666666666</v>
-      </c>
-      <c r="H17">
-        <v>0.166583</v>
-      </c>
-      <c r="I17">
-        <v>0.0004837712409844451</v>
-      </c>
-      <c r="J17">
-        <v>0.000483771240984445</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>4.176559</v>
-      </c>
-      <c r="N17">
-        <v>12.529677</v>
-      </c>
-      <c r="O17">
-        <v>0.2082535000745028</v>
-      </c>
-      <c r="P17">
-        <v>0.2082535000745028</v>
-      </c>
-      <c r="Q17">
-        <v>0.2319145759656667</v>
-      </c>
-      <c r="R17">
-        <v>2.087231183691</v>
-      </c>
-      <c r="S17">
-        <v>0.0001007470541703965</v>
-      </c>
-      <c r="T17">
-        <v>0.0001007470541703965</v>
+        <v>0.002131807589130681</v>
       </c>
     </row>
   </sheetData>
